--- a/Data/Database.xlsx
+++ b/Data/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_BPW\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Sewa\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245981E5-48EF-453D-A976-95C22BB249D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D06D620-5745-433F-B91D-048605A214AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{2E7B224F-011E-4F99-9070-F7A9F0FC557A}"/>
+    <workbookView xWindow="636" yWindow="2244" windowWidth="17280" windowHeight="8964" xr2:uid="{2E7B224F-011E-4F99-9070-F7A9F0FC557A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,6 +374,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,12 +398,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent6" xfId="1" builtinId="49"/>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66DD7E6-4F5A-4A32-AAB4-B17D0CB3C6F2}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,24 +818,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="F3" s="7" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="K3" s="7" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="K3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1012,7 +1012,7 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="6" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1086,36 +1086,36 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="F16" s="4" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="F16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="K16" s="7" t="s">
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="K16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
@@ -1144,14 +1144,14 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
@@ -1180,14 +1180,14 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
@@ -1213,14 +1213,14 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
@@ -1246,10 +1246,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
       <c r="F21" t="s">
         <v>44</v>
       </c>
@@ -1270,11 +1270,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" t="s">
         <v>45</v>
       </c>
@@ -1295,11 +1295,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
       <c r="K23" t="s">
         <v>38</v>
       </c>
@@ -1311,11 +1311,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
       <c r="K24" t="s">
         <v>39</v>
       </c>
@@ -1327,18 +1327,18 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
